--- a/data/trans_orig/P36BPD04_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>360309</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>337855</v>
+        <v>335608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>382181</v>
+        <v>380402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7224399883030865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6774188070542567</v>
+        <v>0.672913763412001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7662946025191124</v>
+        <v>0.7627270670877804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>670</v>
@@ -762,19 +762,19 @@
         <v>468124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>447206</v>
+        <v>446941</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>488457</v>
+        <v>487561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7513878196256522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7178128968332645</v>
+        <v>0.7173871649078122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.784024369813627</v>
+        <v>0.7825870727261064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1001</v>
@@ -783,19 +783,19 @@
         <v>828433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>798041</v>
+        <v>796343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>857259</v>
+        <v>860391</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7385173854481413</v>
+        <v>0.7385173854481414</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7114240689003234</v>
+        <v>0.7099104268509681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7642154259215761</v>
+        <v>0.7670068045427928</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>138430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116558</v>
+        <v>118337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160884</v>
+        <v>163131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2775600116969135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2337053974808876</v>
+        <v>0.2372729329122195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3225811929457432</v>
+        <v>0.3270862365879988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -833,19 +833,19 @@
         <v>154888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134555</v>
+        <v>135451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175806</v>
+        <v>176071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2486121803743478</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2159756301863729</v>
+        <v>0.2174129272738935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2821871031667356</v>
+        <v>0.2826128350921879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -854,19 +854,19 @@
         <v>293318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264492</v>
+        <v>261360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>323710</v>
+        <v>325408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2614826145518587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2357845740784239</v>
+        <v>0.2329931954572073</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2885759310996765</v>
+        <v>0.2900895731490318</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>757479</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>727429</v>
+        <v>727517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>786046</v>
+        <v>784888</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.788928402967942</v>
+        <v>0.7889284029679419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7576301539790025</v>
+        <v>0.7577222853902793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8186807142984647</v>
+        <v>0.8174750216170026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1331</v>
@@ -979,19 +979,19 @@
         <v>909948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>885004</v>
+        <v>886077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>933227</v>
+        <v>933180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8158730103872458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7935081376182295</v>
+        <v>0.7944696922845055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8367456272811915</v>
+        <v>0.8367032566187529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2057</v>
@@ -1000,19 +1000,19 @@
         <v>1667427</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1628425</v>
+        <v>1631946</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1704347</v>
+        <v>1704669</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8034079527322305</v>
+        <v>0.8034079527322304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7846158168993138</v>
+        <v>0.7863126296318794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.821197066315944</v>
+        <v>0.8213521305033598</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>202658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174091</v>
+        <v>175249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>232708</v>
+        <v>232620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2110715970320582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1813192857015355</v>
+        <v>0.1825249783829974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2423698460209976</v>
+        <v>0.2422777146097212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -1050,19 +1050,19 @@
         <v>205358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182079</v>
+        <v>182126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>230302</v>
+        <v>229229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1841269896127542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1632543727188084</v>
+        <v>0.1632967433812474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2064918623817704</v>
+        <v>0.2055303077154946</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>459</v>
@@ -1071,19 +1071,19 @@
         <v>408015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>371095</v>
+        <v>370773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>447017</v>
+        <v>443496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1965920472677696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1788029336840556</v>
+        <v>0.1786478694966404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.215384183100686</v>
+        <v>0.2136873703681211</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>755195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>724397</v>
+        <v>722476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>785943</v>
+        <v>787738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7216532967636291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6922231770315307</v>
+        <v>0.6903877503253243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7510352324221103</v>
+        <v>0.7527512859072291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1154</v>
@@ -1196,19 +1196,19 @@
         <v>798650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>774457</v>
+        <v>773548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>822159</v>
+        <v>823269</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7627386854046345</v>
+        <v>0.7627386854046346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7396333088428558</v>
+        <v>0.7387654087652509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7851910496958036</v>
+        <v>0.7862512116493685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1912</v>
@@ -1217,19 +1217,19 @@
         <v>1553845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1517056</v>
+        <v>1511775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1597462</v>
+        <v>1593403</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7422019073794724</v>
+        <v>0.7422019073794726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7246294612102842</v>
+        <v>0.7221068513138948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7630359346052061</v>
+        <v>0.7610967815943092</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>291284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>260536</v>
+        <v>258741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322082</v>
+        <v>324003</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2783467032363708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2489647675778899</v>
+        <v>0.247248714092771</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3077768229684695</v>
+        <v>0.3096122496746758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>361</v>
@@ -1267,19 +1267,19 @@
         <v>248432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224923</v>
+        <v>223813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>272625</v>
+        <v>273534</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2372613145953655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2148089503041963</v>
+        <v>0.2137487883506316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2603666911571441</v>
+        <v>0.2612345912347491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -1288,19 +1288,19 @@
         <v>539716</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>496099</v>
+        <v>500158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576505</v>
+        <v>581786</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2577980926205275</v>
+        <v>0.2577980926205276</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2369640653947936</v>
+        <v>0.2389032184056907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2753705387897158</v>
+        <v>0.277893148686105</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>774445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>742306</v>
+        <v>743077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>803661</v>
+        <v>802346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7935467656138945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7606151973407771</v>
+        <v>0.7614051087497529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8234833948846009</v>
+        <v>0.8221352301739913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1120</v>
@@ -1413,19 +1413,19 @@
         <v>748023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>724413</v>
+        <v>724162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>769534</v>
+        <v>767810</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8244682015589436</v>
+        <v>0.8244682015589435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7984459842450938</v>
+        <v>0.7981695143464868</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8481781937046399</v>
+        <v>0.8462781129394407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1896</v>
@@ -1434,19 +1434,19 @@
         <v>1522468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1486382</v>
+        <v>1483729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1561822</v>
+        <v>1558787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8084438833302716</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7892821644925527</v>
+        <v>0.7878732370548619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8293411908448463</v>
+        <v>0.8277293341698281</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>201484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172268</v>
+        <v>173583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233623</v>
+        <v>232852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2064532343861055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1765166051153992</v>
+        <v>0.1778647698260086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2393848026592229</v>
+        <v>0.238594891250247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>198</v>
@@ -1484,19 +1484,19 @@
         <v>159256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137745</v>
+        <v>139469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182866</v>
+        <v>183117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1755317984410564</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1518218062953601</v>
+        <v>0.1537218870605596</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2015540157549061</v>
+        <v>0.2018304856535132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -1505,19 +1505,19 @@
         <v>360740</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>321386</v>
+        <v>324421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>396826</v>
+        <v>399479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1915561166697284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1706588091551536</v>
+        <v>0.1722706658301719</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2107178355074472</v>
+        <v>0.2121267629451378</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2647429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2585900</v>
+        <v>2587553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2700076</v>
+        <v>2707040</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7604747683701544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7428007569366381</v>
+        <v>0.7432754098619462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.775597805131268</v>
+        <v>0.7775982498833548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4275</v>
@@ -1630,19 +1630,19 @@
         <v>2924744</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2874767</v>
+        <v>2880719</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2968802</v>
+        <v>2970069</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7920386066959675</v>
+        <v>0.7920386066959674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7785044437417432</v>
+        <v>0.7801161859316708</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8039695787765301</v>
+        <v>0.8043128130958156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6866</v>
@@ -1651,19 +1651,19 @@
         <v>5572173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5502443</v>
+        <v>5496831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5641079</v>
+        <v>5641810</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7767217310911633</v>
+        <v>0.7767217310911635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7670018449282175</v>
+        <v>0.7662195666867729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7863266916968069</v>
+        <v>0.7864286225280785</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>833855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>781208</v>
+        <v>774244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>895384</v>
+        <v>893731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2395252316298457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2244021948687316</v>
+        <v>0.2224017501166452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2571992430633612</v>
+        <v>0.2567245901380539</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1024</v>
@@ -1701,19 +1701,19 @@
         <v>767935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>723877</v>
+        <v>722610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>817912</v>
+        <v>811960</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2079613933040326</v>
+        <v>0.2079613933040325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.19603042122347</v>
+        <v>0.1956871869041845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.221495556258257</v>
+        <v>0.2198838140683294</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1774</v>
@@ -1722,19 +1722,19 @@
         <v>1601790</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1532884</v>
+        <v>1532153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1671520</v>
+        <v>1677132</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2232782689088367</v>
+        <v>0.2232782689088368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2136733083031929</v>
+        <v>0.2135713774719215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2329981550717828</v>
+        <v>0.2337804333132271</v>
       </c>
     </row>
     <row r="18">
